--- a/product_discounts.xlsx
+++ b/product_discounts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,68 +458,68 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Almanaque De Histórias Curtas Da Turma Da Mônica 06</t>
+          <t>X-Men: Tesouros Ocultos (Omnibus)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.9</v>
+        <v>274.9</v>
       </c>
       <c r="C2" t="n">
-        <v>5.49</v>
+        <v>123.71</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-44.04%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Detetives Do Prédio Azul Magazine Vol. 2</t>
+          <t>A Saga Dos Novos Titãs 02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.9</v>
+        <v>39.9</v>
       </c>
       <c r="C3" t="n">
-        <v>7.51</v>
+        <v>17.95</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-44.03%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>As Melhores Tiras Da Turma Da Mônica Vol. 3</t>
+          <t>Aniquilação: A Conquista (Omnibus)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.9</v>
+        <v>359.9</v>
       </c>
       <c r="C4" t="n">
-        <v>10.03</v>
+        <v>161.95</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-44.02%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Star Wars: O Império Vol. 1</t>
+          <t>Sociedade Da Justiça Da América Por Geoff Johns Vol. 2 (Omnibus)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.9</v>
+        <v>339.9</v>
       </c>
       <c r="C5" t="n">
-        <v>11.21</v>
+        <v>152.95</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -530,14 +530,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Atelier Of Witch Hat Vol. 2</t>
+          <t>Batman: Ano Um - Edição Absoluta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.9</v>
+        <v>299.9</v>
       </c>
       <c r="C6" t="n">
-        <v>13.45</v>
+        <v>134.95</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -548,50 +548,50 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>COMITE OLIMPICO DO BRASIL 2024 - Álbum Capa Cartão</t>
+          <t>Aquaman &amp; Flash: Canção Do Vazio</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.9</v>
+        <v>49.9</v>
       </c>
       <c r="C7" t="n">
-        <v>13.97</v>
+        <v>22.45</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-22.01%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>O Espetacular Homem-Aranha Vol. 7 / 51</t>
+          <t>Mônica Vol. 4: 1973</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.9</v>
+        <v>249.9</v>
       </c>
       <c r="C8" t="n">
-        <v>14.06</v>
+        <v>112.45</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Star Wars – Obi Wan</t>
+          <t>Batman: Terra Um (Omnibus)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.9</v>
+        <v>219.9</v>
       </c>
       <c r="C9" t="n">
-        <v>14.35</v>
+        <v>98.95</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -602,18 +602,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Atelier Of Witch Hat Vol. 3</t>
+          <t>A Saga Da Liga Da Justiça Vol. 16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.9</v>
+        <v>39.9</v>
       </c>
       <c r="C10" t="n">
-        <v>15.07</v>
+        <v>17.95</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
@@ -638,14 +638,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A Saga Dos Novos Titãs 02</t>
+          <t>American Jesus: Revelação</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.9</v>
+        <v>54.9</v>
       </c>
       <c r="C12" t="n">
-        <v>17.95</v>
+        <v>24.71</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -656,14 +656,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A Saga Da Liga Da Justiça Vol. 16</t>
+          <t>Fábulas - Edição De Luxo Vol. 13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.9</v>
+        <v>160.9</v>
       </c>
       <c r="C13" t="n">
-        <v>17.95</v>
+        <v>72.41</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -674,194 +674,194 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Box As Melhores Histórias Da Mônica 01</t>
+          <t>Star Wars – Obi Wan</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.9</v>
+        <v>31.9</v>
       </c>
       <c r="C14" t="n">
-        <v>18.03</v>
+        <v>14.35</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-33.01%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LA LIGA 23-24 - Kit Com 6 Envelopes</t>
+          <t>Aquaman: Andrômeda</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>18.09</v>
+        <v>34.61</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-33%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>O Verão Em Que Hikaru Morreu 02</t>
+          <t>Alvo Humano Vol. 2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.9</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>18.59</v>
+        <v>33.71</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>As Memórias De Vanitas 04</t>
+          <t>Atelier Of Witch Hat Vol. 2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.9</v>
+        <v>29.9</v>
       </c>
       <c r="C17" t="n">
-        <v>19.1</v>
+        <v>13.45</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>As Memórias De Vanitas 07</t>
+          <t>Star Wars: O Império Vol. 1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37.9</v>
+        <v>24.9</v>
       </c>
       <c r="C18" t="n">
-        <v>19.1</v>
+        <v>11.21</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>As Memórias De Vanitas 08</t>
+          <t>A Saga Da Liga Da Justiça Vol. 13</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.9</v>
+        <v>49.9</v>
       </c>
       <c r="C19" t="n">
-        <v>19.1</v>
+        <v>22.45</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>As Memórias De Vanitas 09</t>
+          <t>Adam Warlock Omnibus</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37.9</v>
+        <v>369.9</v>
       </c>
       <c r="C20" t="n">
-        <v>19.1</v>
+        <v>166.45</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>As Memórias De Vanitas 06</t>
+          <t>Almanaque De Histórias Curtas Da Turma Da Mônica 06</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37.9</v>
+        <v>10.9</v>
       </c>
       <c r="C21" t="n">
-        <v>19.1</v>
+        <v>5.49</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-44.04%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Star Wars: Leia, A Princesa De Alderaan Vol. 2</t>
+          <t>Detetives Do Prédio Azul Magazine Vol. 2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.9</v>
+        <v>14.9</v>
       </c>
       <c r="C22" t="n">
-        <v>19.1</v>
+        <v>7.51</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-44.03%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Star Wars: Rebeldes Vol. 2</t>
+          <t>As Melhores Tiras Da Turma Da Mônica Vol. 3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.9</v>
+        <v>19.9</v>
       </c>
       <c r="C23" t="n">
-        <v>19.1</v>
+        <v>10.03</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-44.02%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Star Wars: Rebeldes Vol. 1</t>
+          <t>A Saga Do Flash 05</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>37.9</v>
+        <v>49.9</v>
       </c>
       <c r="C24" t="n">
-        <v>19.1</v>
+        <v>25.15</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -872,14 +872,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Star Wars: Rebeldes Vol. 3</t>
+          <t>Asa Noturna (2022) Vol. 5</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.9</v>
+        <v>49.9</v>
       </c>
       <c r="C25" t="n">
-        <v>19.1</v>
+        <v>25.15</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -890,14 +890,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Star Wars: Estrelas Perdidas Vol. 3</t>
+          <t>Mônica: Tesouros (Graphic MSP) - Capa Dura</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>37.9</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>19.1</v>
+        <v>32.71</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A Saga Do Homem-Aranha 07</t>
+          <t>Star Wars: Caçadores De Recompensas Vol. 5</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -926,14 +926,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A Saga Do Homem-Aranha 08</t>
+          <t>Ataque Dos Titãs: Answers</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39.9</v>
+        <v>43.9</v>
       </c>
       <c r="C28" t="n">
-        <v>20.11</v>
+        <v>22.12</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -944,14 +944,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A Saga Do Flash 04</t>
+          <t>Ataque Dos Titãs: Outside</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>39.9</v>
+        <v>43.9</v>
       </c>
       <c r="C29" t="n">
-        <v>20.11</v>
+        <v>22.12</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A Saga Dos Vingadores 02</t>
+          <t>A Saga Da Liga Da Justiça Vol. 15</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -980,14 +980,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Star Wars: Caçadores De Recompensas Vol. 5</t>
+          <t>Star Wars - Han Solo: Cadete Imperial</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.9</v>
+        <v>44.9</v>
       </c>
       <c r="C31" t="n">
-        <v>20.11</v>
+        <v>22.63</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A Saga Da Liga Da Justiça Vol. 15</t>
+          <t>A Saga Dos Vingadores 02</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1016,104 +1016,104 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Star Wars: Sana Starros</t>
+          <t>Star Wars: Rebeldes Vol. 1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.9</v>
+        <v>37.9</v>
       </c>
       <c r="C33" t="n">
-        <v>21.04</v>
+        <v>19.1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-33.01%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Demon Slayer - Kimetsu No Yaiba Vol. 2</t>
+          <t>O Espetacular Homem-Aranha Vol. 7 / 51</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.9</v>
+        <v>27.9</v>
       </c>
       <c r="C34" t="n">
-        <v>21.04</v>
+        <v>14.06</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-33.01%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KonoSuba: Abençoado Mundo Maravilhoso! Vol. 1</t>
+          <t>Atelier Of Witch Hat Vol. 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34.9</v>
+        <v>29.9</v>
       </c>
       <c r="C35" t="n">
-        <v>21.04</v>
+        <v>15.07</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-33.01%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A Saga Do Superman Vol. 1/25</t>
+          <t>O Verão Em Que Hikaru Morreu 02</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>39.9</v>
+        <v>36.9</v>
       </c>
       <c r="C36" t="n">
-        <v>21.91</v>
+        <v>18.59</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-39%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A Saga Do Homem-Aranha 10</t>
+          <t>As Memórias De Vanitas 04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.9</v>
+        <v>37.9</v>
       </c>
       <c r="C37" t="n">
-        <v>21.91</v>
+        <v>19.1</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-39%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ataque Dos Titãs: Outside</t>
+          <t>As Memórias De Vanitas 07</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>43.9</v>
+        <v>37.9</v>
       </c>
       <c r="C38" t="n">
-        <v>22.12</v>
+        <v>19.1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1124,14 +1124,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ataque Dos Titãs: Answers</t>
+          <t>As Memórias De Vanitas 08</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>43.9</v>
+        <v>37.9</v>
       </c>
       <c r="C39" t="n">
-        <v>22.12</v>
+        <v>19.1</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1142,68 +1142,68 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A Saga Dos Novos Titãs 04</t>
+          <t>As Memórias De Vanitas 09</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36.9</v>
+        <v>37.9</v>
       </c>
       <c r="C40" t="n">
-        <v>22.25</v>
+        <v>19.1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-33.01%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A Saga Da Liga Da Justiça Vol. 13</t>
+          <t>As Memórias De Vanitas 06</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49.9</v>
+        <v>37.9</v>
       </c>
       <c r="C41" t="n">
-        <v>22.45</v>
+        <v>19.1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-50%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aquaman &amp; Flash: Canção Do Vazio</t>
+          <t>Star Wars: Leia, A Princesa De Alderaan Vol. 2</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.9</v>
+        <v>37.9</v>
       </c>
       <c r="C42" t="n">
-        <v>22.45</v>
+        <v>19.1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-50%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Star Wars - Han Solo: Cadete Imperial</t>
+          <t>Star Wars: Rebeldes Vol. 2</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>44.9</v>
+        <v>37.9</v>
       </c>
       <c r="C43" t="n">
-        <v>22.63</v>
+        <v>19.1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1214,216 +1214,720 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>As Memórias De Vanitas 10</t>
+          <t>Penadinho: Lar (Graphic MSP) - Capa Dura</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37.9</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>22.85</v>
+        <v>32.71</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-33.01%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A Saga Do Batman Vol. 35</t>
+          <t>A Saga Do Homem-Aranha 07</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>39.9</v>
       </c>
       <c r="C45" t="n">
-        <v>24.06</v>
+        <v>20.11</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-33.01%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A Saga Do Homem-Aranha 09</t>
+          <t>Star Wars: Estrelas Perdidas Vol. 3</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.9</v>
+        <v>37.9</v>
       </c>
       <c r="C46" t="n">
-        <v>24.06</v>
+        <v>19.1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-33.01%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Star Wars (2021) Vol. 6: As Buscas Da Força</t>
+          <t>A Saga Do Flash 04</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>39.9</v>
       </c>
       <c r="C47" t="n">
-        <v>24.06</v>
+        <v>20.11</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-33.01%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Star Wars: Império Oculto</t>
+          <t>A Saga Do Homem-Aranha 08</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>39.9</v>
       </c>
       <c r="C48" t="n">
-        <v>24.06</v>
+        <v>20.11</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-33.01%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Star Wars: Darth Vader (2021) Vol. 6</t>
+          <t>Star Wars: Rebeldes Vol. 3</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>34.9</v>
+        <v>37.9</v>
       </c>
       <c r="C49" t="n">
-        <v>24.5</v>
+        <v>19.1</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-22.01%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>One Piece Vol. 02</t>
+          <t>Superman Vs. Mulher-Maravilha (Grandes Tesouros DC)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>34.9</v>
+        <v>149.9</v>
       </c>
       <c r="C50" t="n">
-        <v>24.5</v>
+        <v>75.55</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-22.01%</t>
+          <t>-44%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>One Piece Vol. 03</t>
+          <t>Pokémon Red, Green &amp; Blue 01</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>34.9</v>
+        <v>39.9</v>
       </c>
       <c r="C51" t="n">
-        <v>24.5</v>
+        <v>34.12</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-22.01%</t>
+          <t>-4.99%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>American Jesus: Revelação</t>
+          <t>Odisseia (Graphic Disney)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>54.9</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>24.71</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-50%</t>
+          <t>-4.99%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Asa Noturna (2022) Vol. 5</t>
+          <t>A Saga Do Homem-Aranha 10</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>49.9</v>
+        <v>39.9</v>
       </c>
       <c r="C53" t="n">
-        <v>25.15</v>
+        <v>21.91</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-39%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A Saga Do Flash 05</t>
+          <t>A Saga Do Superman Vol. 1/25</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>49.9</v>
+        <v>39.9</v>
       </c>
       <c r="C54" t="n">
-        <v>25.15</v>
+        <v>21.91</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-39%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>KonoSuba: Abençoado Mundo Maravilhoso! Vol. 1</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C55" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>-33.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ataque Dos Titãs (2 Em 1) Vol. 01</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>-33.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Star Wars: Sana Starros</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C57" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>-33.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>A Saga Dos Novos Titãs 04</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C58" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>-33.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>As Memórias De Vanitas 10</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>-33.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Demon Slayer - Kimetsu No Yaiba Vol. 2</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>-33.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Star Wars: Império Oculto</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>-33.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Box As Melhores Histórias Da Mônica 01</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>-33.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>A Saga Do Homem-Aranha 09</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="C63" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>-33.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Star Wars (2021) Vol. 6: As Buscas Da Força</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>-33.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>A Saga Do Batman Vol. 35</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>-33.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CONMEBOL COPA AMÉRICA USA 2024 - Kit Box Premium Álbum Capa Dura Prata + 30 Envelopes</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="C66" t="n">
+        <v>120.54</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>-33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Box Diversão Com A Turma Da Mônica</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="C67" t="n">
+        <v>108.48</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>-33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LA LIGA 23-24 - Kit Com 6 Envelopes</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>30</v>
+      </c>
+      <c r="C68" t="n">
+        <v>18.09</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>-33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Preacher Vol. 2 (Omnibus)</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>434.9</v>
+      </c>
+      <c r="C69" t="n">
+        <v>262.24</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>-33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
           <t>Pokémon Platinum 01</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B70" t="n">
         <v>36.9</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C70" t="n">
         <v>25.9</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>-22.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>One Piece Vol. 03</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>-22.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>One Piece Vol. 02</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C72" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-22.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Star Wars: Darth Vader (2021) Vol. 6</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C73" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-22.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>COMITE OLIMPICO DO BRASIL 2024 - Álbum Capa Cartão</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>-22.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Caixa Anos 2000: O Renascimento Da Marvel Vol 2</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>155.61</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Sonic Prime - Kit Com 40 Envelopes</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>160</v>
+      </c>
+      <c r="C76" t="n">
+        <v>112.32</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>-22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Caixa Anos 2000: O Renascimento Da Marvel Vol 1</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>155.61</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>-22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CONMEBOL LIBERTADORES 2024 - Kit Com 40 Envelopes</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>200</v>
+      </c>
+      <c r="C78" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>-22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Fábulas - Edição De Luxo Vol. 14</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>84.87</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>-22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>UPGRADE - CONMEBOL COPA AMERICA 2024</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="C80" t="n">
+        <v>84.17</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>-22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>COMITE OLIMPICO DO BRASIL 2024 - Álbum Capa Cartão + Kit Com 40 Envelopes</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>219.9</v>
+      </c>
+      <c r="C81" t="n">
+        <v>154.37</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>-22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CONMEBOL LIBERTADORES 2024 - Kit Com 10 Envelopes</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>50</v>
+      </c>
+      <c r="C82" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>-22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CONMEBOL LIBERTADORES 2024 - Kit Box Premium Capa Dura + 30 Envelopes</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="C83" t="n">
+        <v>140.33</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>-22%</t>
         </is>
       </c>
     </row>
